--- a/Statistics_course/DZ_4/R_proj/CI_compare.xlsx
+++ b/Statistics_course/DZ_4/R_proj/CI_compare.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>0.6970569</t>
   </si>
@@ -68,15 +68,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>α=0.05</t>
-  </si>
-  <si>
-    <t>α=0.02</t>
-  </si>
-  <si>
-    <t>α=0.1</t>
-  </si>
-  <si>
     <t>CI</t>
   </si>
   <si>
@@ -84,13 +75,25 @@
   </si>
   <si>
     <t>CP</t>
+  </si>
+  <si>
+    <t>$\alpha$</t>
+  </si>
+  <si>
+    <t>$\alpha$=0.1</t>
+  </si>
+  <si>
+    <t>$\alpha$=0.05</t>
+  </si>
+  <si>
+    <t>$\alpha$=0.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +116,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,20 +140,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,100 +459,105 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Statistics_course/DZ_4/R_proj/CI_compare.xlsx
+++ b/Statistics_course/DZ_4/R_proj/CI_compare.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>0.6970569</t>
   </si>
@@ -87,6 +87,60 @@
   </si>
   <si>
     <t>$\alpha$=0.02</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>0.6779266</t>
+  </si>
+  <si>
+    <t>0.6775675</t>
+  </si>
+  <si>
+    <t>0.7228906</t>
+  </si>
+  <si>
+    <t>0.7234332</t>
+  </si>
+  <si>
+    <t>0.6734280</t>
+  </si>
+  <si>
+    <t>0.6731287</t>
+  </si>
+  <si>
+    <t>0.7269840</t>
+  </si>
+  <si>
+    <t>0.7275974</t>
+  </si>
+  <si>
+    <t>0.6681609</t>
+  </si>
+  <si>
+    <t>0.6679422</t>
+  </si>
+  <si>
+    <t>0.7316903</t>
+  </si>
+  <si>
+    <t>0.7324052</t>
+  </si>
+  <si>
+    <t>alpha=0.1</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>alpha=0.05</t>
+  </si>
+  <si>
+    <t>alpha=0.02</t>
   </si>
 </sst>
 </file>
@@ -456,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="F4" sqref="F4:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,9 +521,11 @@
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -483,7 +539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -497,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -509,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -522,8 +578,20 @@
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -534,8 +602,20 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -548,8 +628,18 @@
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -560,12 +650,65 @@
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="5"/>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
